--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 1.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 1.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -979,7 +979,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1164,7 +1164,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1233,7 +1233,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1256,7 +1256,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1279,7 +1279,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1394,7 +1394,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1440,7 +1440,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1463,7 +1463,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1513,7 +1513,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1697,7 +1697,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1882,7 +1882,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1905,7 +1905,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1928,7 +1928,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1951,7 +1951,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1974,7 +1974,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -2062,7 +2062,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2108,7 +2108,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2154,7 +2154,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2269,7 +2269,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2292,7 +2292,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2384,7 +2384,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2430,7 +2430,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2454,7 +2454,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2503,7 +2503,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2618,7 +2618,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2641,7 +2641,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2781,7 +2781,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2827,7 +2827,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
